--- a/Output/Figures_and_tables/Paper/TableS4_change_wash_pretty_v2.xlsx
+++ b/Output/Figures_and_tables/Paper/TableS4_change_wash_pretty_v2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esthe\OneDrive - VanKleefBV\Documenten\Documenten\Research\CABU-EICO\Output\Figures_and_tables\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF402F5-F19F-4D81-A26A-669946863D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78E5C5B-5D9C-4F9B-8762-1EC90A3A4728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{DEDACB95-B10F-454D-BF3E-8576273079F5}"/>
+    <workbookView xWindow="43080" yWindow="2655" windowWidth="29040" windowHeight="15720" xr2:uid="{DEDACB95-B10F-454D-BF3E-8576273079F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,23 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="166">
   <si>
     <t>WASH Indicator</t>
   </si>
   <si>
-    <t>(N=409)</t>
-  </si>
-  <si>
-    <t>(N=399)</t>
-  </si>
-  <si>
-    <t>(N=393)</t>
-  </si>
-  <si>
-    <t>(N=383)</t>
-  </si>
-  <si>
     <t>Use of improved drinking water source (dry)</t>
   </si>
   <si>
@@ -483,6 +472,69 @@
   </si>
   <si>
     <t>Correct handwashing**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Improved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Unimproved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Missing</t>
+  </si>
+  <si>
+    <t>2 (0.5%)</t>
+  </si>
+  <si>
+    <t>1 (0.3%)</t>
+  </si>
+  <si>
+    <t>Cleaning of drinking water storage containers*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not treated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Treated</t>
+  </si>
+  <si>
+    <t>4 (1.0%)</t>
+  </si>
+  <si>
+    <t>6 (1.5%)</t>
+  </si>
+  <si>
+    <t>7 (1.8%)</t>
+  </si>
+  <si>
+    <t>14 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not Correct</t>
+  </si>
+  <si>
+    <t>3 (0.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Exposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not Exposed</t>
+  </si>
+  <si>
+    <t>3 (0.7%)</t>
+  </si>
+  <si>
+    <t>5 (1.3%)</t>
   </si>
 </sst>
 </file>
@@ -525,9 +577,8 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF434343"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -586,20 +637,14 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,39 +652,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,886 +1028,1941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8541B6-D55F-429B-80C2-7EB968DFE468}">
-  <dimension ref="A2:G62"/>
+  <dimension ref="A2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="9"/>
+    <col min="1" max="1" width="9.23046875" style="6"/>
     <col min="2" max="2" width="38.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.23046875" customWidth="1"/>
     <col min="4" max="4" width="14.3046875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="15.69140625" customWidth="1"/>
-    <col min="7" max="7" width="34.921875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="34.921875" style="6" customWidth="1"/>
     <col min="8" max="11" width="34.921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="8"/>
+      <c r="C3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>10</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>20</v>
+        <v>145</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>24</v>
+        <v>146</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>49</v>
+        <v>158</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>53</v>
+        <v>147</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>59</v>
+        <v>145</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="13" t="s">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B63" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="21"/>
-      <c r="C29" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="F65" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AED521-C83D-4AAD-9689-1BA9C9C1E7D8}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="84.9" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="84.9" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="99" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="56.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="56.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A25" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A27" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="70.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A29" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A30" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A31" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="84.9" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A39" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="84.9" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A43" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="99" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A45" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A46" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A47" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A49" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A50" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A51" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="56.6" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A53" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A55" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="56.6" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A57" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A58" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A59" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="70.75" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A61" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A63" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>